--- a/results/2011年.xlsx
+++ b/results/2011年.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,52 +429,52 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營收</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>稅後淨利</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>營業現金流</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投資現金流</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>總負債</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>流動負債</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>股價</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>營收</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>營業利益</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>稅後淨利</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>營業現金流</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>投資現金流</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ROA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -553,169 +553,159 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>615986896</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>61.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38428121</v>
       </c>
       <c r="D2" t="n">
-        <v>20.1</v>
+        <v>7005429</v>
       </c>
       <c r="E2" t="n">
-        <v>32048850</v>
+        <v>6331050</v>
       </c>
       <c r="F2" t="n">
-        <v>15124013</v>
+        <v>5660870</v>
       </c>
       <c r="G2" t="n">
-        <v>13577668</v>
+        <v>-5383164</v>
       </c>
       <c r="H2" t="n">
-        <v>32303263</v>
+        <v>24.08</v>
       </c>
       <c r="I2" t="n">
-        <v>-52843468</v>
+        <v>14.99</v>
       </c>
       <c r="J2" t="n">
-        <v>10.1</v>
+        <v>17994930</v>
       </c>
       <c r="K2" t="n">
-        <v>1.93</v>
+        <v>8972612</v>
       </c>
       <c r="L2" t="n">
-        <v>15821362</v>
+        <v>9288777</v>
       </c>
       <c r="M2" t="n">
-        <v>767992148</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>46184330</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21078903</v>
       </c>
       <c r="O2" t="n">
-        <v>1.47</v>
+        <v>6.05</v>
       </c>
       <c r="P2" t="n">
-        <v>9236508.843537414</v>
+        <v>1046454.545454546</v>
       </c>
       <c r="Q2" t="n">
-        <v>152005252</v>
+        <v>28189400</v>
       </c>
       <c r="R2" t="n">
-        <v>16.45700281079196</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>26.93800712362088</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3083973</v>
+      </c>
+      <c r="T2" t="n">
+        <v>9022318</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4236553885708847</v>
+        <v>0.1647504440823427</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02060094239401</v>
+        <v>0.2011239959527398</v>
       </c>
       <c r="W2" t="n">
-        <v>40.72906417099748</v>
+        <v>2.568712066027648</v>
       </c>
       <c r="X2" t="n">
-        <v>0.07313432835820895</v>
+        <v>0.09789644012944984</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.221364560187052</v>
+        <v>2.294156346324892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>3384452534</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>475968</v>
       </c>
       <c r="D3" t="n">
-        <v>42.05</v>
+        <v>122259</v>
       </c>
       <c r="E3" t="n">
-        <v>242021091</v>
+        <v>121608</v>
       </c>
       <c r="F3" t="n">
-        <v>35808874</v>
+        <v>153632</v>
       </c>
       <c r="G3" t="n">
-        <v>30687086</v>
+        <v>638689</v>
       </c>
       <c r="H3" t="n">
-        <v>183756274</v>
+        <v>1.67</v>
       </c>
       <c r="I3" t="n">
-        <v>-110802704</v>
+        <v>1.55</v>
       </c>
       <c r="J3" t="n">
-        <v>13.46</v>
+        <v>581146</v>
       </c>
       <c r="K3" t="n">
-        <v>0.87</v>
+        <v>484333</v>
       </c>
       <c r="L3" t="n">
-        <v>32516807</v>
+        <v>453437</v>
       </c>
       <c r="M3" t="n">
-        <v>3618135216</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>7857694</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2752154</v>
       </c>
       <c r="O3" t="n">
-        <v>3.39</v>
+        <v>0.68</v>
       </c>
       <c r="P3" t="n">
-        <v>9052237.758112093</v>
+        <v>178835.294117647</v>
       </c>
       <c r="Q3" t="n">
-        <v>233682682</v>
+        <v>7276548</v>
       </c>
       <c r="R3" t="n">
-        <v>25.81490767745103</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>40.68854549042826</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2171008</v>
+      </c>
+      <c r="T3" t="n">
+        <v>96813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1267950899370171</v>
+        <v>0.2554961678096007</v>
       </c>
       <c r="V3" t="n">
-        <v>0.008987172965843077</v>
+        <v>0.05770611581463977</v>
       </c>
       <c r="W3" t="n">
-        <v>94.51435233623934</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.08061831153388824</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.628903753032985</v>
+        <v>4.753400567647372</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -723,83 +713,8057 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>644071</v>
+      </c>
+      <c r="D4" t="n">
+        <v>163194</v>
+      </c>
+      <c r="E4" t="n">
+        <v>153129</v>
+      </c>
+      <c r="F4" t="n">
+        <v>193744</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-165643</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="J4" t="n">
+        <v>82287</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77348</v>
+      </c>
+      <c r="L4" t="n">
+        <v>451620</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1680036</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1104457</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P4" t="n">
+        <v>75433.00492610838</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1597749</v>
+      </c>
+      <c r="R4" t="n">
+        <v>21.18103344239171</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1022170</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4939</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2377517385505635</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2688156682356806</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5042280966211993</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.02466585662211421</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.885551676401437</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>170</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3063721</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1017512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>918391</v>
+      </c>
+      <c r="F5" t="n">
+        <v>966970</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-419901</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>918867</v>
+      </c>
+      <c r="K5" t="n">
+        <v>881967</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1518398</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4248300</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2613200</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="P5" t="n">
+        <v>68793.33333333333</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3329433</v>
+      </c>
+      <c r="R5" t="n">
+        <v>48.39761120263591</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1694333</v>
+      </c>
+      <c r="T5" t="n">
+        <v>36900</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2997632617330364</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.3574130828802109</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9030527404099411</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.07852941176470588</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.512570058225129</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15190418</v>
+      </c>
+      <c r="D6" t="n">
+        <v>905242</v>
+      </c>
+      <c r="E6" t="n">
+        <v>882183</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3811184</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2619997</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2550626</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2057788</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9404061</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22819803</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12122633</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1633672.222222222</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>20269177</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12.40712593645536</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9572007</v>
+      </c>
+      <c r="T6" t="n">
+        <v>492838</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.05807496541569824</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.412100884481781</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.817617830370221</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.03375</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.289581493888753</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17549063</v>
+      </c>
+      <c r="D7" t="n">
+        <v>754649</v>
+      </c>
+      <c r="E7" t="n">
+        <v>428706</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2753612</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-4401321</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10434062</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5545317</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11139193</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29426870</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8782067</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P7" t="n">
+        <v>420300</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>18992808</v>
+      </c>
+      <c r="R7" t="n">
+        <v>45.18869379014989</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-1651995</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4888745</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0244289965794755</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.3785381523757029</v>
+      </c>
+      <c r="W7" t="n">
+        <v>13.8263775609588</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.01153846153846154</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.956241541535091</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>180</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32345861</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2747456</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2616398</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2652540</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-431486</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4709722</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4709306</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1259632</v>
+      </c>
+      <c r="M8" t="n">
+        <v>15513780</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13881365</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>178228.7465940054</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10804058</v>
+      </c>
+      <c r="R8" t="n">
+        <v>60.61905392069556</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9171643</v>
+      </c>
+      <c r="T8" t="n">
+        <v>416</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.08088818535391591</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.08119439620775852</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.714211983740595</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.08155555555555555</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.969363399096986</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>346387</v>
+      </c>
+      <c r="D9" t="n">
+        <v>105643</v>
+      </c>
+      <c r="E9" t="n">
+        <v>90073</v>
+      </c>
+      <c r="F9" t="n">
+        <v>110972</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-4214</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>50096</v>
+      </c>
+      <c r="K9" t="n">
+        <v>50096</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2501</v>
+      </c>
+      <c r="M9" t="n">
+        <v>406947</v>
+      </c>
+      <c r="N9" t="n">
+        <v>390381</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="P9" t="n">
+        <v>18883.2285115304</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>356851</v>
+      </c>
+      <c r="R9" t="n">
+        <v>18.89777480488048</v>
+      </c>
+      <c r="S9" t="n">
+        <v>340285</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2600357403713188</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.006145763453226096</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.4742008462463201</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>237</v>
+      </c>
+      <c r="C10" t="n">
+        <v>48113806</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4048833</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3682528</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2679335</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2861457</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14590278</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14082526</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4931954</v>
+      </c>
+      <c r="M10" t="n">
+        <v>30557356</v>
+      </c>
+      <c r="N10" t="n">
+        <v>25251145</v>
+      </c>
+      <c r="O10" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="P10" t="n">
+        <v>279827.3556231003</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15967078</v>
+      </c>
+      <c r="R10" t="n">
+        <v>57.06046131353244</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10660867</v>
+      </c>
+      <c r="T10" t="n">
+        <v>507752</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.07653786524391773</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1613998933677377</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3.603576141569682</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.05552742616033755</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4.153489028028471</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3715</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-77399</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13956</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-29266</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-641686</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20085</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19177</v>
+      </c>
+      <c r="L11" t="n">
+        <v>14130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1387242</v>
+      </c>
+      <c r="N11" t="n">
+        <v>520593</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P11" t="n">
+        <v>107353.8461538462</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1367157</v>
+      </c>
+      <c r="R11" t="n">
+        <v>12.73505374032674</v>
+      </c>
+      <c r="S11" t="n">
+        <v>500508</v>
+      </c>
+      <c r="T11" t="n">
+        <v>908</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3.756662180349933</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.01018567776927169</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.2594994767374256</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8901273</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1777371</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1278610</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1865441</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-3507627</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8553550</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3065682</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11266742</v>
+      </c>
+      <c r="M12" t="n">
+        <v>18598683</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5565604</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="P12" t="n">
+        <v>626769.6078431372</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10045133</v>
+      </c>
+      <c r="R12" t="n">
+        <v>16.02683485973049</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-2987946</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5487868</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.1436434990815359</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.6057817104576706</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4.812473028984945</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4029282</v>
+      </c>
+      <c r="D13" t="n">
+        <v>134294</v>
+      </c>
+      <c r="E13" t="n">
+        <v>165226</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-184532</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-173294</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1744884</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1600450</v>
+      </c>
+      <c r="L13" t="n">
+        <v>598212</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2735306</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1966097</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P13" t="n">
+        <v>54892.35880398672</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>990422</v>
+      </c>
+      <c r="R13" t="n">
+        <v>18.04298488131408</v>
+      </c>
+      <c r="S13" t="n">
+        <v>221213</v>
+      </c>
+      <c r="T13" t="n">
+        <v>144434</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.04100631328360736</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.218700211237792</v>
+      </c>
+      <c r="W13" t="n">
+        <v>12.99301532458636</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.1054290718038529</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.582332423809064</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13225975</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2207851</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1898685</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4736904</v>
+      </c>
+      <c r="G14" t="n">
+        <v>409945</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9684441</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5028736</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10011077</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26462164</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11265520</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P14" t="n">
+        <v>630792.3588039868</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>16777723</v>
+      </c>
+      <c r="R14" t="n">
+        <v>26.59785389888264</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1581079</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4655705</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1435572802761233</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.3783166410728919</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4.386365293672444</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0608080808080808</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.861052406264983</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17676235</v>
+      </c>
+      <c r="D15" t="n">
+        <v>110349</v>
+      </c>
+      <c r="E15" t="n">
+        <v>141360</v>
+      </c>
+      <c r="F15" t="n">
+        <v>112012</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-791786</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4331241</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3925774</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2022690</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8923757</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4721766</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>239593.2203389831</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4592516</v>
+      </c>
+      <c r="R15" t="n">
+        <v>19.1679714204867</v>
+      </c>
+      <c r="S15" t="n">
+        <v>390525</v>
+      </c>
+      <c r="T15" t="n">
+        <v>405467</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.007997178132107884</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.226663500586132</v>
+      </c>
+      <c r="W15" t="n">
+        <v>39.25038740722616</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.0325068870523416</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9468920629024574</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>43864186</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5428671</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10908116</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8326680</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4154154</v>
+      </c>
+      <c r="H16" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="J16" t="n">
+        <v>15885119</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5903516</v>
+      </c>
+      <c r="L16" t="n">
+        <v>16844210</v>
+      </c>
+      <c r="M16" t="n">
+        <v>54379580</v>
+      </c>
+      <c r="N16" t="n">
+        <v>23338350</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1972534.538878842</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>38494461</v>
+      </c>
+      <c r="R16" t="n">
+        <v>19.51522786611364</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7453231</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9981603</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.2486793212120704</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3097524842964951</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.926152459782514</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.1533980582524272</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.847275381426493</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>994582</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-83369</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-68354</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-22792</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-17399</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-7.51</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>493917</v>
+      </c>
+      <c r="K17" t="n">
+        <v>471466</v>
+      </c>
+      <c r="L17" t="n">
+        <v>649080</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1374252</v>
+      </c>
+      <c r="N17" t="n">
+        <v>626586</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="P17" t="n">
+        <v>60490.26548672567</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>880335</v>
+      </c>
+      <c r="R17" t="n">
+        <v>14.55333338209907</v>
+      </c>
+      <c r="S17" t="n">
+        <v>132669</v>
+      </c>
+      <c r="T17" t="n">
+        <v>22451</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.06872635941531216</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4723151212441386</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-5.924468327555807</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.06996904024767801</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.109711402603122</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>137</v>
+      </c>
+      <c r="C18" t="n">
+        <v>47886794</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1238037</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1056247</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3323360</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2321475</v>
+      </c>
+      <c r="H18" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12067056</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10371955</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5477929</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16724121</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9052751</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>234721.5555555556</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4657065</v>
+      </c>
+      <c r="R18" t="n">
+        <v>19.84080664844492</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-3014305</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1695101</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.02205716674204583</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.3275466017018174</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9.74692678813315</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.03284671532846715</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>6.904961195755505</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>748584</v>
+      </c>
+      <c r="D19" t="n">
+        <v>105938</v>
+      </c>
+      <c r="E19" t="n">
+        <v>98053</v>
+      </c>
+      <c r="F19" t="n">
+        <v>138888</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-281596</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>300898</v>
+      </c>
+      <c r="K19" t="n">
+        <v>178820</v>
+      </c>
+      <c r="L19" t="n">
+        <v>483537</v>
+      </c>
+      <c r="M19" t="n">
+        <v>995586</v>
+      </c>
+      <c r="N19" t="n">
+        <v>464636</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>38909.92063492064</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>694688</v>
+      </c>
+      <c r="R19" t="n">
+        <v>17.85375011473387</v>
+      </c>
+      <c r="S19" t="n">
+        <v>163738</v>
+      </c>
+      <c r="T19" t="n">
+        <v>122078</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1309846323191519</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.4856807950292591</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.840321697596707</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4903828</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1003231</v>
+      </c>
+      <c r="E20" t="n">
+        <v>819082</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2427619</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2623247</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3759874</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1785829</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7451587</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11545490</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3917450</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P20" t="n">
+        <v>438011.7647058823</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7785616</v>
+      </c>
+      <c r="R20" t="n">
+        <v>17.77490156052752</v>
+      </c>
+      <c r="S20" t="n">
+        <v>157576</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1974045</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.1670291046097049</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.6454110652731067</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3.747764971377479</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.06296296296296297</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.670895329510819</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6254076</v>
+      </c>
+      <c r="D21" t="n">
+        <v>292833</v>
+      </c>
+      <c r="E21" t="n">
+        <v>155132</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1418399</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-283627</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4721957</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2465469</v>
+      </c>
+      <c r="L21" t="n">
+        <v>679846</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8859171</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7960676</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="P21" t="n">
+        <v>397774.3589743589</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4137214</v>
+      </c>
+      <c r="R21" t="n">
+        <v>10.40090671170358</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3238719</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2256488</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.02480494320823732</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.07673923440466382</v>
+      </c>
+      <c r="W21" t="n">
+        <v>16.12508494602726</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>669179</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2984</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5522</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14009</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-16252</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>166385</v>
+      </c>
+      <c r="K22" t="n">
+        <v>118676</v>
+      </c>
+      <c r="L22" t="n">
+        <v>26761</v>
+      </c>
+      <c r="M22" t="n">
+        <v>258122</v>
+      </c>
+      <c r="N22" t="n">
+        <v>221367</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6989.873417721518</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>91737</v>
+      </c>
+      <c r="R22" t="n">
+        <v>13.1242720028975</v>
+      </c>
+      <c r="S22" t="n">
+        <v>54982</v>
+      </c>
+      <c r="T22" t="n">
+        <v>47709</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.008251902704657497</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.1036757812197333</v>
+      </c>
+      <c r="W22" t="n">
+        <v>55.75904825737265</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3866586</v>
+      </c>
+      <c r="D23" t="n">
+        <v>248699</v>
+      </c>
+      <c r="E23" t="n">
+        <v>134422</v>
+      </c>
+      <c r="F23" t="n">
+        <v>870860</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2048169</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2532595</v>
+      </c>
+      <c r="K23" t="n">
+        <v>920559</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4980991</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6492444</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1362652</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="P23" t="n">
+        <v>231762.0689655172</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3959849</v>
+      </c>
+      <c r="R23" t="n">
+        <v>17.08583728853908</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-1169943</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1612036</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.03476503561539818</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.7671981460294459</v>
+      </c>
+      <c r="W23" t="n">
+        <v>10.18337427975183</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>815962</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-5785</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17254</v>
+      </c>
+      <c r="F24" t="n">
+        <v>44599</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-147010</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J24" t="n">
+        <v>404684</v>
+      </c>
+      <c r="K24" t="n">
+        <v>351956</v>
+      </c>
+      <c r="L24" t="n">
+        <v>418181</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1156486</v>
+      </c>
+      <c r="N24" t="n">
+        <v>680896</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>78427.27272727272</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>751802</v>
+      </c>
+      <c r="R24" t="n">
+        <v>9.585976585139679</v>
+      </c>
+      <c r="S24" t="n">
+        <v>276212</v>
+      </c>
+      <c r="T24" t="n">
+        <v>52728</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.02114559256435962</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.3615962493277048</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-69.95401901469317</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.009442060085836909</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.430633936256427</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>299308</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-117329</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-114444</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-18871</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-54851</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-18.37</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-16.84</v>
+      </c>
+      <c r="J26" t="n">
+        <v>51974</v>
+      </c>
+      <c r="K26" t="n">
+        <v>51282</v>
+      </c>
+      <c r="L26" t="n">
+        <v>106826</v>
+      </c>
+      <c r="M26" t="n">
+        <v>614387</v>
+      </c>
+      <c r="N26" t="n">
+        <v>341465</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="P26" t="n">
+        <v>58991.75257731959</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>562413</v>
+      </c>
+      <c r="R26" t="n">
+        <v>9.533756422355038</v>
+      </c>
+      <c r="S26" t="n">
+        <v>289491</v>
+      </c>
+      <c r="T26" t="n">
+        <v>692</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.3823619816376442</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1738741216855174</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-0.4429765872035047</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-0.04703030303030303</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4.326731056740212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>47</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1650862</v>
+      </c>
+      <c r="D27" t="n">
+        <v>82029</v>
+      </c>
+      <c r="E27" t="n">
+        <v>70309</v>
+      </c>
+      <c r="F27" t="n">
+        <v>273702</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-367507</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J27" t="n">
+        <v>718263</v>
+      </c>
+      <c r="K27" t="n">
+        <v>412980</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1341963</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2533017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1133227</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P27" t="n">
+        <v>130201.8518518518</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1814754</v>
+      </c>
+      <c r="R27" t="n">
+        <v>13.93800452289181</v>
+      </c>
+      <c r="S27" t="n">
+        <v>414964</v>
+      </c>
+      <c r="T27" t="n">
+        <v>305283</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.04258926548675783</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5297883906819417</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8.756208170281242</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.01148936170212766</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.372075243827558</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>110</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4082587</v>
+      </c>
+      <c r="D28" t="n">
+        <v>718682</v>
+      </c>
+      <c r="E28" t="n">
+        <v>630852</v>
+      </c>
+      <c r="F28" t="n">
+        <v>158957</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-307601</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1696831</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1586221</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1210837</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4806593</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3335990</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="P28" t="n">
+        <v>77979.23362175525</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3109762</v>
+      </c>
+      <c r="R28" t="n">
+        <v>39.87936089605803</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1639159</v>
+      </c>
+      <c r="T28" t="n">
+        <v>110610</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.1545226102958737</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.2519116971210169</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.361031721957695</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.07354545454545454</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.758319028399304</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31426194</v>
+      </c>
+      <c r="D29" t="n">
+        <v>318266</v>
+      </c>
+      <c r="E29" t="n">
+        <v>466299</v>
+      </c>
+      <c r="F29" t="n">
+        <v>982775</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-380448</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5756612</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5737014</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4445883</v>
+      </c>
+      <c r="M29" t="n">
+        <v>10685865</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3540240</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P29" t="n">
+        <v>308807.2847682119</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4929253</v>
+      </c>
+      <c r="R29" t="n">
+        <v>15.96223030716343</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-2216372</v>
+      </c>
+      <c r="T29" t="n">
+        <v>19598</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.01483790878399083</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.4160527013957223</v>
+      </c>
+      <c r="W29" t="n">
+        <v>18.08742372732243</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.03822784810126582</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.474591535136129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30305180</v>
+      </c>
+      <c r="D30" t="n">
+        <v>251533</v>
+      </c>
+      <c r="E30" t="n">
+        <v>74387</v>
+      </c>
+      <c r="F30" t="n">
+        <v>450213</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1715857</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9329122</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4433365</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2376465</v>
+      </c>
+      <c r="M30" t="n">
+        <v>15870980</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10176477</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P30" t="n">
+        <v>218785.294117647</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>6541858</v>
+      </c>
+      <c r="R30" t="n">
+        <v>29.90081223869762</v>
+      </c>
+      <c r="S30" t="n">
+        <v>847355</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4895757</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.002454596870897979</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.1497365002035161</v>
+      </c>
+      <c r="W30" t="n">
+        <v>37.08905789697575</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.008173076923076924</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.391266553828304</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="C32" t="n">
+        <v>29152737</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1516010</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1744186</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3096331</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-629757</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14521550</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9920510</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10108281</v>
+      </c>
+      <c r="M32" t="n">
+        <v>28659974</v>
+      </c>
+      <c r="N32" t="n">
+        <v>17634208</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="P32" t="n">
+        <v>723728.6307053942</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>14138424</v>
+      </c>
+      <c r="R32" t="n">
+        <v>19.53553224254753</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3112658</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4601040</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.05982923661678833</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.3526967958868351</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9.578795654382228</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.08155668358714044</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.512628354995182</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2094590</v>
+      </c>
+      <c r="D33" t="n">
+        <v>281634</v>
+      </c>
+      <c r="E33" t="n">
+        <v>268419</v>
+      </c>
+      <c r="F33" t="n">
+        <v>302468</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-210311</v>
+      </c>
+      <c r="H33" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="I33" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="J33" t="n">
+        <v>352492</v>
+      </c>
+      <c r="K33" t="n">
+        <v>321712</v>
+      </c>
+      <c r="L33" t="n">
+        <v>149045</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1306738</v>
+      </c>
+      <c r="N33" t="n">
+        <v>976551</v>
+      </c>
+      <c r="O33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>35789.2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>954246</v>
+      </c>
+      <c r="R33" t="n">
+        <v>26.66295977557476</v>
+      </c>
+      <c r="S33" t="n">
+        <v>624059</v>
+      </c>
+      <c r="T33" t="n">
+        <v>30780</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.128148706906841</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.1140588243396917</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.251596043091388</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1012901</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-23546</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-23097</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30106</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-43765</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-8.68</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="J34" t="n">
+        <v>609326</v>
+      </c>
+      <c r="K34" t="n">
+        <v>575619</v>
+      </c>
+      <c r="L34" t="n">
+        <v>195856</v>
+      </c>
+      <c r="M34" t="n">
+        <v>866184</v>
+      </c>
+      <c r="N34" t="n">
+        <v>615223</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="P34" t="n">
+        <v>26548.27586206897</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>256858</v>
+      </c>
+      <c r="R34" t="n">
+        <v>9.675129237563318</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5897</v>
+      </c>
+      <c r="T34" t="n">
+        <v>33707</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.02280282080874636</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.2261136202007887</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-25.87811093179308</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="C35" t="n">
+        <v>36825588</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1190726</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1445307</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1563380</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1923049</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J35" t="n">
+        <v>21531638</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11271240</v>
+      </c>
+      <c r="L35" t="n">
+        <v>13151591</v>
+      </c>
+      <c r="M35" t="n">
+        <v>38723029</v>
+      </c>
+      <c r="N35" t="n">
+        <v>20490999</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1017821.830985915</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>17191391</v>
+      </c>
+      <c r="R35" t="n">
+        <v>16.89037361612446</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-1040639</v>
+      </c>
+      <c r="T35" t="n">
+        <v>10260398</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.03924735702794481</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.3396322896124681</v>
+      </c>
+      <c r="W35" t="n">
+        <v>18.08278142914491</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.08045325779036827</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.044973924268339</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1395925</v>
+      </c>
+      <c r="D36" t="n">
+        <v>64738</v>
+      </c>
+      <c r="E36" t="n">
+        <v>52233</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-414763</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-4066</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J36" t="n">
+        <v>382339</v>
+      </c>
+      <c r="K36" t="n">
+        <v>72866</v>
+      </c>
+      <c r="L36" t="n">
+        <v>427054</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2810401</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1451481</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>180113.7931034483</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2428062</v>
+      </c>
+      <c r="R36" t="n">
+        <v>13.48071104474183</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1069142</v>
+      </c>
+      <c r="T36" t="n">
+        <v>309473</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.03741819940183033</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1519548277985953</v>
+      </c>
+      <c r="W36" t="n">
+        <v>5.905943958725942</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.03258426966292134</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.6602025642758257</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>401026616</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24190943</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20830190</v>
+      </c>
+      <c r="F38" t="n">
+        <v>16522117</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-62261842</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J38" t="n">
+        <v>299577678</v>
+      </c>
+      <c r="K38" t="n">
+        <v>148805031</v>
+      </c>
+      <c r="L38" t="n">
+        <v>402543946</v>
+      </c>
+      <c r="M38" t="n">
+        <v>611685615</v>
+      </c>
+      <c r="N38" t="n">
+        <v>176596078</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P38" t="n">
+        <v>15316316.17647059</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>312107937</v>
+      </c>
+      <c r="R38" t="n">
+        <v>20.37748068164525</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-122981600</v>
+      </c>
+      <c r="T38" t="n">
+        <v>150772647</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0519421633600499</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6580896070279502</v>
+      </c>
+      <c r="W38" t="n">
+        <v>12.38387763552665</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0397080291970803</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.680776958402431</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10299905</v>
+      </c>
+      <c r="D39" t="n">
+        <v>166520</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5073</v>
+      </c>
+      <c r="F39" t="n">
+        <v>594149</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-442007</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J39" t="n">
+        <v>7942016</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2003760</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7475625</v>
+      </c>
+      <c r="M39" t="n">
+        <v>14415433</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3205659</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>507300</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>6473417</v>
+      </c>
+      <c r="R39" t="n">
+        <v>12.76053025822984</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-4736357</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5938256</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.000492528814586154</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.5185848389014746</v>
+      </c>
+      <c r="W39" t="n">
+        <v>47.69406677876531</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.001267427122940431</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6183128632065569</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5519902</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-101383</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-34220</v>
+      </c>
+      <c r="F40" t="n">
+        <v>90453</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-296576</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2239588</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1845127</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1208809</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5768576</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3217151</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>342200</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3528988</v>
+      </c>
+      <c r="R40" t="n">
+        <v>10.31264757451783</v>
+      </c>
+      <c r="S40" t="n">
+        <v>977563</v>
+      </c>
+      <c r="T40" t="n">
+        <v>394461</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.006199385423871656</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.2095506759380478</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-22.090370180405</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-0.007168458781362008</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.352707915130343</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>66</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1318490</v>
+      </c>
+      <c r="D41" t="n">
+        <v>273192</v>
+      </c>
+      <c r="E41" t="n">
+        <v>236461</v>
+      </c>
+      <c r="F41" t="n">
+        <v>355421</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-49425</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="J41" t="n">
+        <v>304685</v>
+      </c>
+      <c r="K41" t="n">
+        <v>304685</v>
+      </c>
+      <c r="L41" t="n">
+        <v>83135</v>
+      </c>
+      <c r="M41" t="n">
+        <v>996023</v>
+      </c>
+      <c r="N41" t="n">
+        <v>869891</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="P41" t="n">
+        <v>37955.21669341894</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>691338</v>
+      </c>
+      <c r="R41" t="n">
+        <v>18.21457128236792</v>
+      </c>
+      <c r="S41" t="n">
+        <v>565206</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.1793422779088199</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.08346694805240441</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.115277899792088</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.09439393939393941</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.623472602063897</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1383487</v>
+      </c>
+      <c r="D42" t="n">
+        <v>119120</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1005124</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1054178</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1371490</v>
+      </c>
+      <c r="H42" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="J42" t="n">
+        <v>143898</v>
+      </c>
+      <c r="K42" t="n">
+        <v>117764</v>
+      </c>
+      <c r="L42" t="n">
+        <v>27906</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4793559</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4363088</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="P42" t="n">
+        <v>317073.8170347003</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4649661</v>
+      </c>
+      <c r="R42" t="n">
+        <v>14.66428557073555</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4219190</v>
+      </c>
+      <c r="T42" t="n">
+        <v>26134</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.7265149582178944</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.005821561808251448</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.20800873069174</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.3506637168141593</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6164637176761253</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1133070</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10373</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4399</v>
+      </c>
+      <c r="F43" t="n">
+        <v>38480</v>
+      </c>
+      <c r="G43" t="n">
+        <v>30320</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J43" t="n">
+        <v>540969</v>
+      </c>
+      <c r="K43" t="n">
+        <v>445904</v>
+      </c>
+      <c r="L43" t="n">
+        <v>528703</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1165599</v>
+      </c>
+      <c r="N43" t="n">
+        <v>624288</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P43" t="n">
+        <v>54987.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>624630</v>
+      </c>
+      <c r="R43" t="n">
+        <v>11.35949079336213</v>
+      </c>
+      <c r="S43" t="n">
+        <v>83319</v>
+      </c>
+      <c r="T43" t="n">
+        <v>95065</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.003882372668943666</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.4535890988238666</v>
+      </c>
+      <c r="W43" t="n">
+        <v>52.15164369034995</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.004678362573099415</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.505349166706691</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1585017</v>
+      </c>
+      <c r="D44" t="n">
+        <v>107711</v>
+      </c>
+      <c r="E44" t="n">
+        <v>102239</v>
+      </c>
+      <c r="F44" t="n">
+        <v>106547</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-23213</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="J44" t="n">
+        <v>293975</v>
+      </c>
+      <c r="K44" t="n">
+        <v>246293</v>
+      </c>
+      <c r="L44" t="n">
+        <v>416685</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1615412</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1174498</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>78645.38461538461</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1321437</v>
+      </c>
+      <c r="R44" t="n">
+        <v>16.80247361574351</v>
+      </c>
+      <c r="S44" t="n">
+        <v>880523</v>
+      </c>
+      <c r="T44" t="n">
+        <v>47682</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.06450340911170038</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.2579434843866457</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.72929412966178</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.08125</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.9522407453750377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6788889</v>
+      </c>
+      <c r="D46" t="n">
+        <v>996968</v>
+      </c>
+      <c r="E46" t="n">
+        <v>844991</v>
+      </c>
+      <c r="F46" t="n">
+        <v>604519</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-160629</v>
+      </c>
+      <c r="H46" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2890355</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2804994</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1111150</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6444970</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5260487</v>
+      </c>
+      <c r="O46" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="P46" t="n">
+        <v>92958.30583058306</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3554615</v>
+      </c>
+      <c r="R46" t="n">
+        <v>38.23881005833198</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2370132</v>
+      </c>
+      <c r="T46" t="n">
+        <v>85361</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.1244667573737028</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.1724057675986079</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2.899145208271479</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.1199208443271768</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.982279257235508</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1261106</v>
+      </c>
+      <c r="D47" t="n">
+        <v>40265</v>
+      </c>
+      <c r="E47" t="n">
+        <v>29675</v>
+      </c>
+      <c r="F47" t="n">
+        <v>132816</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-184842</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J47" t="n">
+        <v>657040</v>
+      </c>
+      <c r="K47" t="n">
+        <v>607278</v>
+      </c>
+      <c r="L47" t="n">
+        <v>614240</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1607708</v>
+      </c>
+      <c r="N47" t="n">
+        <v>962201</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P47" t="n">
+        <v>41215.27777777778</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>950668</v>
+      </c>
+      <c r="R47" t="n">
+        <v>23.06591272114574</v>
+      </c>
+      <c r="S47" t="n">
+        <v>305161</v>
+      </c>
+      <c r="T47" t="n">
+        <v>49762</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.02353093237206072</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.382059428702227</v>
+      </c>
+      <c r="W47" t="n">
+        <v>16.31789395256426</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25638678</v>
+      </c>
+      <c r="D48" t="n">
+        <v>795937</v>
+      </c>
+      <c r="E48" t="n">
+        <v>552945</v>
+      </c>
+      <c r="F48" t="n">
+        <v>732558</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-2129132</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="J48" t="n">
+        <v>20894438</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7500545</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9903477</v>
+      </c>
+      <c r="M48" t="n">
+        <v>30885098</v>
+      </c>
+      <c r="N48" t="n">
+        <v>18934536</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P48" t="n">
+        <v>409588.8888888889</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>9990660</v>
+      </c>
+      <c r="R48" t="n">
+        <v>24.39192143884112</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-1959902</v>
+      </c>
+      <c r="T48" t="n">
+        <v>13393893</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.02156682961578596</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.3206555148376087</v>
+      </c>
+      <c r="W48" t="n">
+        <v>26.25137165378667</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.04173106646058733</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.32625878125725</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4643615</v>
+      </c>
+      <c r="D49" t="n">
+        <v>62003</v>
+      </c>
+      <c r="E49" t="n">
+        <v>18678</v>
+      </c>
+      <c r="F49" t="n">
+        <v>297187</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1257919</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5253749</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1620765</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4215685</v>
+      </c>
+      <c r="M49" t="n">
+        <v>11039106</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2712189</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P49" t="n">
+        <v>466950</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5785357</v>
+      </c>
+      <c r="R49" t="n">
+        <v>12.38967127101403</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-2541560</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3632984</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.00402229728347419</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.3818864498628784</v>
+      </c>
+      <c r="W49" t="n">
+        <v>84.73378707481896</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.003007518796992481</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.073474808901162</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>388028397</v>
+      </c>
+      <c r="D50" t="n">
+        <v>15081507</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14734942</v>
+      </c>
+      <c r="F50" t="n">
+        <v>35502069</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-30270878</v>
+      </c>
+      <c r="H50" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J50" t="n">
+        <v>201856804</v>
+      </c>
+      <c r="K50" t="n">
+        <v>115995429</v>
+      </c>
+      <c r="L50" t="n">
+        <v>126234975</v>
+      </c>
+      <c r="M50" t="n">
+        <v>320856278</v>
+      </c>
+      <c r="N50" t="n">
+        <v>122045916</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P50" t="n">
+        <v>7084106.730769231</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>118999474</v>
+      </c>
+      <c r="R50" t="n">
+        <v>16.79809163280045</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-79810888</v>
+      </c>
+      <c r="T50" t="n">
+        <v>85861375</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.03797387540170159</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.3934315257499808</v>
+      </c>
+      <c r="W50" t="n">
+        <v>13.38439215656632</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.05012048192771085</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.47051872957794</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C51" t="n">
+        <v>21424507</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1657424</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-2282728</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1815507</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1637663</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-7.02</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="J51" t="n">
+        <v>20233800</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12976644</v>
+      </c>
+      <c r="L51" t="n">
+        <v>28463229</v>
+      </c>
+      <c r="M51" t="n">
+        <v>52119493</v>
+      </c>
+      <c r="N51" t="n">
+        <v>16549032</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2623825.287356322</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>31885693</v>
+      </c>
+      <c r="R51" t="n">
+        <v>12.15236896818193</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-3684768</v>
+      </c>
+      <c r="T51" t="n">
+        <v>7257156</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.1065475158891638</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.5461148480473514</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-12.2079805770883</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.105072463768116</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.681348634301608</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>25319934</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1642048</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1952307</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3625242</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-318834</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="J52" t="n">
+        <v>18934731</v>
+      </c>
+      <c r="K52" t="n">
+        <v>14021697</v>
+      </c>
+      <c r="L52" t="n">
+        <v>34504603</v>
+      </c>
+      <c r="M52" t="n">
+        <v>54066584</v>
+      </c>
+      <c r="N52" t="n">
+        <v>15493597</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3200503.278688525</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>35131853</v>
+      </c>
+      <c r="R52" t="n">
+        <v>10.97697766283684</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-3441134</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4913034</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.07710553273954032</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.6381872211493886</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-11.53116778559457</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.08970588235294118</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.6194783490378936</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>510081200</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-62700308</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-64760598</v>
+      </c>
+      <c r="F53" t="n">
+        <v>28138847</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-71054432</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-28.06</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>484997133</v>
+      </c>
+      <c r="K53" t="n">
+        <v>419171745</v>
+      </c>
+      <c r="L53" t="n">
+        <v>403808043</v>
+      </c>
+      <c r="M53" t="n">
+        <v>683665076</v>
+      </c>
+      <c r="N53" t="n">
+        <v>212582766</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-8.81</v>
+      </c>
+      <c r="P53" t="n">
+        <v>7350805.675368899</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>198667943</v>
+      </c>
+      <c r="R53" t="n">
+        <v>27.02668955944477</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-272414367</v>
+      </c>
+      <c r="T53" t="n">
+        <v>65825388</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-0.1269613504673374</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.5906518515800272</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-7.735163485959272</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-0.3017123287671233</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.080413490367552</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>37127581</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-33066774</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-39878897</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-15703422</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-10351709</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-143.71</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>95668686</v>
+      </c>
+      <c r="K54" t="n">
+        <v>64917768</v>
+      </c>
+      <c r="L54" t="n">
+        <v>70328992</v>
+      </c>
+      <c r="M54" t="n">
+        <v>118490280</v>
+      </c>
+      <c r="N54" t="n">
+        <v>30171792</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4947753.970223324</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>22821594</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4.612515928913481</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-65496894</v>
+      </c>
+      <c r="T54" t="n">
+        <v>30750918</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-1.074104370009993</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.5935422888696018</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-2.893196838615101</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.6830508474576271</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.558256747913193</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4016504</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-450157</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1070325</v>
+      </c>
+      <c r="F55" t="n">
+        <v>317787</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-13380</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-143.93</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11561149</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3219231</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3627512</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11819384</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3019909</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="P55" t="n">
+        <v>273042.0918367347</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>258235</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.9457699296942518</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-8541240</v>
+      </c>
+      <c r="T55" t="n">
+        <v>8341918</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-0.2664817463147055</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.3069121030334576</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-25.68248188965183</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.742222222222222</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.37901410201039</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>102</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3452681273</v>
+      </c>
+      <c r="D56" t="n">
+        <v>82845028</v>
+      </c>
+      <c r="E56" t="n">
+        <v>81934633</v>
+      </c>
+      <c r="F56" t="n">
+        <v>101207991</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-86170402</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1115291941</v>
+      </c>
+      <c r="K56" t="n">
+        <v>991716043</v>
+      </c>
+      <c r="L56" t="n">
+        <v>355373481</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1730311425</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1283667822</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="P56" t="n">
+        <v>10710409.54248366</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>615019484</v>
+      </c>
+      <c r="R56" t="n">
+        <v>57.42259262453766</v>
+      </c>
+      <c r="S56" t="n">
+        <v>168375881</v>
+      </c>
+      <c r="T56" t="n">
+        <v>123575898</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.023730725926175</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.205381225521296</v>
+      </c>
+      <c r="W56" t="n">
+        <v>13.46238836445321</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.776304331414211</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="C57" t="n">
+        <v>15318601</v>
+      </c>
+      <c r="D57" t="n">
+        <v>638475</v>
+      </c>
+      <c r="E57" t="n">
+        <v>667792</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2481520</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1579721</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8304907</v>
+      </c>
+      <c r="K57" t="n">
+        <v>8059712</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1496493</v>
+      </c>
+      <c r="M57" t="n">
+        <v>16400073</v>
+      </c>
+      <c r="N57" t="n">
+        <v>13083307</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="P57" t="n">
+        <v>205474.4615384615</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>8095166</v>
+      </c>
+      <c r="R57" t="n">
+        <v>39.39743138582074</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4778400</v>
+      </c>
+      <c r="T57" t="n">
+        <v>245195</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.04359353703383227</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.09124916700065908</v>
+      </c>
+      <c r="W57" t="n">
+        <v>13.00741141000039</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.08541392904073589</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.9657990041882353</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C58" t="n">
+        <v>114704787</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4137146</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3161228</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7423147</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-4996908</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="J58" t="n">
+        <v>78072047</v>
+      </c>
+      <c r="K58" t="n">
+        <v>53200188</v>
+      </c>
+      <c r="L58" t="n">
+        <v>54496017</v>
+      </c>
+      <c r="M58" t="n">
+        <v>112036995</v>
+      </c>
+      <c r="N58" t="n">
+        <v>25229856</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1927578.048780488</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>33964948</v>
+      </c>
+      <c r="R58" t="n">
+        <v>17.62053060392986</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-52842191</v>
+      </c>
+      <c r="T58" t="n">
+        <v>24871859</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.02755968676355242</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.4864109127525243</v>
+      </c>
+      <c r="W58" t="n">
+        <v>18.8709914999374</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.03071161048689139</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3.030555730716209</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9177278</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2313059</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3549516</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2651093</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-11069312</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>13801404</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3893420</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3414961</v>
+      </c>
+      <c r="M59" t="n">
+        <v>42686702</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5461422</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1034844.314868805</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>28885298</v>
+      </c>
+      <c r="R59" t="n">
+        <v>27.91269912292267</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-8339982</v>
+      </c>
+      <c r="T59" t="n">
+        <v>9907984</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.3867721997742686</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.08000058191424581</v>
+      </c>
+      <c r="W59" t="n">
+        <v>5.966732366100476</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.04817415730337079</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.550810284825827</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>577485</v>
+      </c>
+      <c r="D60" t="n">
+        <v>34031</v>
+      </c>
+      <c r="E60" t="n">
+        <v>51398</v>
+      </c>
+      <c r="F60" t="n">
+        <v>126106</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-17724</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>166893</v>
+      </c>
+      <c r="K60" t="n">
+        <v>46750</v>
+      </c>
+      <c r="L60" t="n">
+        <v>461718</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2381869</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1104600</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P60" t="n">
+        <v>151170.5882352941</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2214976</v>
+      </c>
+      <c r="R60" t="n">
+        <v>14.65216234094712</v>
+      </c>
+      <c r="S60" t="n">
+        <v>937707</v>
+      </c>
+      <c r="T60" t="n">
+        <v>120143</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.08900317757171182</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.1938469328078077</v>
+      </c>
+      <c r="W60" t="n">
+        <v>4.904146219623285</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.02377622377622378</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.9759651624959845</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>37607662</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1417044</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1218918</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1318807</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-2077682</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J61" t="n">
+        <v>20424141</v>
+      </c>
+      <c r="K61" t="n">
+        <v>9612174</v>
+      </c>
+      <c r="L61" t="n">
+        <v>13260482</v>
+      </c>
+      <c r="M61" t="n">
+        <v>39207663</v>
+      </c>
+      <c r="N61" t="n">
+        <v>23176490</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P61" t="n">
+        <v>990990.243902439</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>18783522</v>
+      </c>
+      <c r="R61" t="n">
+        <v>18.95429558017848</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2752349</v>
+      </c>
+      <c r="T61" t="n">
+        <v>10811967</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.03241142722459056</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3382114868718393</v>
+      </c>
+      <c r="W61" t="n">
+        <v>14.41320170721587</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.03693693693693694</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.756857692713391</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="C62" t="n">
+        <v>119960616</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11614719</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8587316</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6451528</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-28836298</v>
+      </c>
+      <c r="H62" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>90524162</v>
+      </c>
+      <c r="K62" t="n">
+        <v>37318672</v>
+      </c>
+      <c r="L62" t="n">
+        <v>83209786</v>
+      </c>
+      <c r="M62" t="n">
+        <v>142785564</v>
+      </c>
+      <c r="N62" t="n">
+        <v>53274447</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2489077.101449275</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>52261402</v>
+      </c>
+      <c r="R62" t="n">
+        <v>20.99629696869196</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-37249715</v>
+      </c>
+      <c r="T62" t="n">
+        <v>53205490</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.07158446068666403</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.5827604953116969</v>
+      </c>
+      <c r="W62" t="n">
+        <v>7.793917528267365</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.04227941176470588</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3.886399593303311</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C63" t="n">
+        <v>217493067</v>
+      </c>
+      <c r="D63" t="n">
+        <v>55084717</v>
+      </c>
+      <c r="E63" t="n">
+        <v>48095196</v>
+      </c>
+      <c r="F63" t="n">
+        <v>75358691</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-33104868</v>
+      </c>
+      <c r="H63" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="J63" t="n">
+        <v>69877634</v>
+      </c>
+      <c r="K63" t="n">
+        <v>59280808</v>
+      </c>
+      <c r="L63" t="n">
+        <v>302612014</v>
+      </c>
+      <c r="M63" t="n">
+        <v>442920282</v>
+      </c>
+      <c r="N63" t="n">
+        <v>106538985</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="P63" t="n">
+        <v>7962780.794701987</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>373042648</v>
+      </c>
+      <c r="R63" t="n">
+        <v>46.84828800614515</v>
+      </c>
+      <c r="S63" t="n">
+        <v>36661351</v>
+      </c>
+      <c r="T63" t="n">
+        <v>10596826</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.2211343867802462</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.683220042743493</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.268548479608237</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.0638477801268499</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.0192840341912</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>25468244</v>
+      </c>
+      <c r="D64" t="n">
+        <v>941102</v>
+      </c>
+      <c r="E64" t="n">
+        <v>947778</v>
+      </c>
+      <c r="F64" t="n">
+        <v>785816</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1002352</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10392039</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9345070</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3487122</v>
+      </c>
+      <c r="M64" t="n">
+        <v>20034707</v>
+      </c>
+      <c r="N64" t="n">
+        <v>15934922</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="P64" t="n">
+        <v>471531.3432835821</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>9642668</v>
+      </c>
+      <c r="R64" t="n">
+        <v>20.44968619233618</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5542883</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1046969</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.03721410867588672</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.1740540552951436</v>
+      </c>
+      <c r="W64" t="n">
+        <v>11.04241516860021</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.09054054054054053</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.085591230652712</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2386829</v>
+      </c>
+      <c r="D65" t="n">
+        <v>500935</v>
+      </c>
+      <c r="E65" t="n">
+        <v>665935</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-65292</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-290070</v>
+      </c>
+      <c r="H65" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4571481</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4534714</v>
+      </c>
+      <c r="L65" t="n">
+        <v>175799</v>
+      </c>
+      <c r="M65" t="n">
+        <v>10696067</v>
+      </c>
+      <c r="N65" t="n">
+        <v>9939828</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P65" t="n">
+        <v>396389.8809523809</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6124586</v>
+      </c>
+      <c r="R65" t="n">
+        <v>15.4509140982228</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5368347</v>
+      </c>
+      <c r="T65" t="n">
+        <v>36767</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.2790040677400853</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.01643585441265467</v>
+      </c>
+      <c r="W65" t="n">
+        <v>9.125896573407728</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.08593350383631713</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.265297307053742</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>800362324</v>
+      </c>
+      <c r="D66" t="n">
+        <v>20860342</v>
+      </c>
+      <c r="E66" t="n">
+        <v>22508822</v>
+      </c>
+      <c r="F66" t="n">
+        <v>40243279</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-13790663</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="J66" t="n">
+        <v>239229344</v>
+      </c>
+      <c r="K66" t="n">
+        <v>95418148</v>
+      </c>
+      <c r="L66" t="n">
+        <v>186546496</v>
+      </c>
+      <c r="M66" t="n">
+        <v>462459217</v>
+      </c>
+      <c r="N66" t="n">
+        <v>239958427</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P66" t="n">
+        <v>9537636.440677967</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>223229873</v>
+      </c>
+      <c r="R66" t="n">
+        <v>23.40515644399338</v>
+      </c>
+      <c r="S66" t="n">
+        <v>729083</v>
+      </c>
+      <c r="T66" t="n">
+        <v>143811196</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.02812329032119708</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.4033793449077262</v>
+      </c>
+      <c r="W66" t="n">
+        <v>11.46814103047783</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0232512315270936</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>4.336651209441013</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>25</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5024675</v>
+      </c>
+      <c r="D67" t="n">
+        <v>281816</v>
+      </c>
+      <c r="E67" t="n">
+        <v>307891</v>
+      </c>
+      <c r="F67" t="n">
+        <v>114851</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1099387</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4682857</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3693446</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4167666</v>
+      </c>
+      <c r="M67" t="n">
+        <v>9465212</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3821371</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P67" t="n">
+        <v>298923.3009708738</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4782355</v>
+      </c>
+      <c r="R67" t="n">
+        <v>15.99860226508732</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-861486</v>
+      </c>
+      <c r="T67" t="n">
+        <v>989411</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.06127580390771543</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.4403140679786147</v>
+      </c>
+      <c r="W67" t="n">
+        <v>16.61671800039742</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.56263650947532</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="C68" t="n">
+        <v>532209</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-145865</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-38403</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-76294</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-189089</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-6.18</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="J68" t="n">
+        <v>524731</v>
+      </c>
+      <c r="K68" t="n">
+        <v>491692</v>
+      </c>
+      <c r="L68" t="n">
+        <v>489460</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1120782</v>
+      </c>
+      <c r="N68" t="n">
+        <v>579701</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="P68" t="n">
+        <v>44654.65116279069</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>596051</v>
+      </c>
+      <c r="R68" t="n">
+        <v>13.34801604041351</v>
+      </c>
+      <c r="S68" t="n">
+        <v>54970</v>
+      </c>
+      <c r="T68" t="n">
+        <v>33039</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-0.07215774254099423</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.4367129379308376</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-3.597374284441093</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-0.01797283176593521</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3.584802404726332</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="C69" t="n">
+        <v>18279317</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1082188</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1365072</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2648624</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-3863073</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="J69" t="n">
+        <v>13967903</v>
+      </c>
+      <c r="K69" t="n">
+        <v>7616469</v>
+      </c>
+      <c r="L69" t="n">
+        <v>17107833</v>
+      </c>
+      <c r="M69" t="n">
+        <v>30500025</v>
+      </c>
+      <c r="N69" t="n">
+        <v>8869794</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="P69" t="n">
+        <v>637884.1121495327</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>16532122</v>
+      </c>
+      <c r="R69" t="n">
+        <v>25.91712457657911</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-5098109</v>
+      </c>
+      <c r="T69" t="n">
+        <v>6351434</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.07467850139039658</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.5609120976130347</v>
+      </c>
+      <c r="W69" t="n">
+        <v>12.90709470073592</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.444990546283169</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>32115351</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1048713</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3831565</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7000822</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-498517</v>
+      </c>
+      <c r="H70" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="I70" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5092170</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2698570</v>
+      </c>
+      <c r="L70" t="n">
+        <v>37166</v>
+      </c>
+      <c r="M70" t="n">
+        <v>24655654</v>
+      </c>
+      <c r="N70" t="n">
+        <v>13848011</v>
+      </c>
+      <c r="O70" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="P70" t="n">
+        <v>300044.2443226312</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>19563484</v>
+      </c>
+      <c r="R70" t="n">
+        <v>65.20199727265491</v>
+      </c>
+      <c r="S70" t="n">
+        <v>8755841</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2393600</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.1193063404475947</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.001507402723935046</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4.855637338337562</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.1034008097165992</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.894113756723749</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3473054</v>
+      </c>
+      <c r="D71" t="n">
+        <v>637014</v>
+      </c>
+      <c r="E71" t="n">
+        <v>504018</v>
+      </c>
+      <c r="F71" t="n">
+        <v>455327</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-162975</v>
+      </c>
+      <c r="H71" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3168847</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1227669</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4420495</v>
+      </c>
+      <c r="M71" t="n">
+        <v>6763883</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2148166</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="P71" t="n">
+        <v>161028.1150159744</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3595036</v>
+      </c>
+      <c r="R71" t="n">
+        <v>22.32551750135908</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-1020681</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1941178</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.1451224196341318</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.6535439776235041</v>
+      </c>
+      <c r="W71" t="n">
+        <v>4.974532741823571</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.08005115089514066</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.751359178913536</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="C72" t="n">
+        <v>108156058</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-5117703</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-3679802</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-625682</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-9557284</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-5.42</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="J72" t="n">
+        <v>72411149</v>
+      </c>
+      <c r="K72" t="n">
+        <v>28682375</v>
+      </c>
+      <c r="L72" t="n">
+        <v>64762841</v>
+      </c>
+      <c r="M72" t="n">
+        <v>138012684</v>
+      </c>
+      <c r="N72" t="n">
+        <v>46321915</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4134608.988764045</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>65601535</v>
+      </c>
+      <c r="R72" t="n">
+        <v>15.86644231129827</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-26089234</v>
+      </c>
+      <c r="T72" t="n">
+        <v>43728774</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-0.03402307802305442</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.4692528188206238</v>
+      </c>
+      <c r="W72" t="n">
+        <v>-14.14915031216153</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-0.03377609108159393</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.660737768619783</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4061861</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1232912</v>
+      </c>
+      <c r="E73" t="n">
+        <v>908495</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1950727</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-3981867</v>
+      </c>
+      <c r="H73" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="J73" t="n">
+        <v>16552088</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3086010</v>
+      </c>
+      <c r="L73" t="n">
+        <v>19769821</v>
+      </c>
+      <c r="M73" t="n">
+        <v>24431055</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3965308</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="P73" t="n">
+        <v>366328.6290322581</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>7878967</v>
+      </c>
+      <c r="R73" t="n">
+        <v>21.50792041783389</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-12586780</v>
+      </c>
+      <c r="T73" t="n">
+        <v>13466078</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.223664719201371</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.8092086485827157</v>
+      </c>
+      <c r="W73" t="n">
+        <v>13.42519822988178</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.06302414231257941</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.829558564266021</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>46</v>
+      </c>
+      <c r="C74" t="n">
+        <v>235561246</v>
+      </c>
+      <c r="D74" t="n">
+        <v>17777070</v>
+      </c>
+      <c r="E74" t="n">
+        <v>17674403</v>
+      </c>
+      <c r="F74" t="n">
+        <v>31714526</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-21364514</v>
+      </c>
+      <c r="H74" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J74" t="n">
+        <v>160594963</v>
+      </c>
+      <c r="K74" t="n">
+        <v>85360368</v>
+      </c>
+      <c r="L74" t="n">
+        <v>151446354</v>
+      </c>
+      <c r="M74" t="n">
+        <v>329005187</v>
+      </c>
+      <c r="N74" t="n">
+        <v>101495775</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P74" t="n">
+        <v>7820532.300884956</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>168410224</v>
+      </c>
+      <c r="R74" t="n">
+        <v>21.53436844458056</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-59099188</v>
+      </c>
+      <c r="T74" t="n">
+        <v>75234595</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.07503103035887321</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.4603160071151097</v>
+      </c>
+      <c r="W74" t="n">
+        <v>9.033826327960682</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.04913043478260869</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.136120226529168</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1297168</v>
+      </c>
+      <c r="D75" t="n">
+        <v>138938</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1182570</v>
+      </c>
+      <c r="F75" t="n">
+        <v>44115</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1089449</v>
+      </c>
+      <c r="H75" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="I75" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1057245</v>
+      </c>
+      <c r="K75" t="n">
+        <v>298493</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3202282</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4167116</v>
+      </c>
+      <c r="N75" t="n">
+        <v>876613</v>
+      </c>
+      <c r="O75" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="P75" t="n">
+        <v>219808.5501858736</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3109871</v>
+      </c>
+      <c r="R75" t="n">
+        <v>14.14808931395182</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-180632</v>
+      </c>
+      <c r="T75" t="n">
+        <v>758752</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.9116552366385849</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.7684648087550239</v>
+      </c>
+      <c r="W75" t="n">
+        <v>7.609473290244569</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.372318339100346</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.021339325710254</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1377931</v>
+      </c>
+      <c r="D76" t="n">
+        <v>171349</v>
+      </c>
+      <c r="E76" t="n">
+        <v>115230</v>
+      </c>
+      <c r="F76" t="n">
+        <v>22905</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-188332</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="J76" t="n">
+        <v>304127</v>
+      </c>
+      <c r="K76" t="n">
+        <v>222753</v>
+      </c>
+      <c r="L76" t="n">
+        <v>486790</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1267720</v>
+      </c>
+      <c r="N76" t="n">
+        <v>739350</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P76" t="n">
+        <v>64374.30167597765</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>963593</v>
+      </c>
+      <c r="R76" t="n">
+        <v>14.96859732708496</v>
+      </c>
+      <c r="S76" t="n">
+        <v>435223</v>
+      </c>
+      <c r="T76" t="n">
+        <v>81374</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.08362537746810254</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.3839885779194144</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.774898015162038</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="C77" t="n">
+        <v>116702723</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5179867</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8466916</v>
+      </c>
+      <c r="F77" t="n">
+        <v>41653800</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-55120060</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J77" t="n">
+        <v>67706783</v>
+      </c>
+      <c r="K77" t="n">
+        <v>42905954</v>
+      </c>
+      <c r="L77" t="n">
+        <v>149324300</v>
+      </c>
+      <c r="M77" t="n">
+        <v>279831746</v>
+      </c>
+      <c r="N77" t="n">
+        <v>84057514</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P77" t="n">
+        <v>10079661.9047619</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>212124963</v>
+      </c>
+      <c r="R77" t="n">
+        <v>21.0448490241311</v>
+      </c>
+      <c r="S77" t="n">
+        <v>16350731</v>
+      </c>
+      <c r="T77" t="n">
+        <v>24800829</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.07255114347246208</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.533621728536833</v>
+      </c>
+      <c r="W77" t="n">
+        <v>13.07114313938949</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.05581395348837209</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.7151393665377642</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10174535</v>
+      </c>
+      <c r="D78" t="n">
+        <v>252917</v>
+      </c>
+      <c r="E78" t="n">
+        <v>198796</v>
+      </c>
+      <c r="F78" t="n">
+        <v>593246</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1023647</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6014794</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3553654</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4992393</v>
+      </c>
+      <c r="M78" t="n">
+        <v>9857377</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4690496</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P78" t="n">
+        <v>239513.2530120482</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3842583</v>
+      </c>
+      <c r="R78" t="n">
+        <v>16.04330011670255</v>
+      </c>
+      <c r="S78" t="n">
+        <v>-1324298</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2461140</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0195385833357495</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.5064626218516346</v>
+      </c>
+      <c r="W78" t="n">
+        <v>23.78169122676609</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.02219251336898396</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.331191196820108</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2250650</v>
+      </c>
+      <c r="D79" t="n">
+        <v>229161</v>
+      </c>
+      <c r="E79" t="n">
+        <v>187208</v>
+      </c>
+      <c r="F79" t="n">
+        <v>475173</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6090</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="J79" t="n">
+        <v>803366</v>
+      </c>
+      <c r="K79" t="n">
+        <v>543987</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1556628</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5158198</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2870637</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="P79" t="n">
+        <v>367074.5098039216</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4354832</v>
+      </c>
+      <c r="R79" t="n">
+        <v>11.86361864877569</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2067271</v>
+      </c>
+      <c r="T79" t="n">
+        <v>259379</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.08317952591473575</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.3017774812056458</v>
+      </c>
+      <c r="W79" t="n">
+        <v>3.505683776907938</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.04180327868852459</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.028354025966522</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15154025</v>
+      </c>
+      <c r="D80" t="n">
+        <v>650759</v>
+      </c>
+      <c r="E80" t="n">
+        <v>509729</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6846588</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-4313670</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14743619</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3631072</v>
+      </c>
+      <c r="L80" t="n">
+        <v>19792957</v>
+      </c>
+      <c r="M80" t="n">
+        <v>35783086</v>
+      </c>
+      <c r="N80" t="n">
+        <v>12315398</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1341392.105263158</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>21039467</v>
+      </c>
+      <c r="R80" t="n">
+        <v>15.68480008004253</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-2428221</v>
+      </c>
+      <c r="T80" t="n">
+        <v>11112547</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.03363654210680001</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.5531372280188467</v>
+      </c>
+      <c r="W80" t="n">
+        <v>22.65603549086528</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.02268656716417911</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.067912878361315</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>310672790</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5060386</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7236589</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-3993708</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1681358</v>
+      </c>
+      <c r="H81" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="J81" t="n">
+        <v>63339014</v>
+      </c>
+      <c r="K81" t="n">
+        <v>57851448</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5060904</v>
+      </c>
+      <c r="M81" t="n">
+        <v>106144228</v>
+      </c>
+      <c r="N81" t="n">
+        <v>87077541</v>
+      </c>
+      <c r="O81" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1549590.792291221</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>42805214</v>
+      </c>
+      <c r="R81" t="n">
+        <v>27.62355985395882</v>
+      </c>
+      <c r="S81" t="n">
+        <v>23738527</v>
+      </c>
+      <c r="T81" t="n">
+        <v>5487566</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.02329328229871692</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.04767950264803848</v>
+      </c>
+      <c r="W81" t="n">
+        <v>12.51663687315553</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.06847507331378298</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.468906989561161</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>29361172</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1272645</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1076382</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1713962</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-649120</v>
+      </c>
+      <c r="H82" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="J82" t="n">
+        <v>6867165</v>
+      </c>
+      <c r="K82" t="n">
+        <v>6752755</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2467009</v>
+      </c>
+      <c r="M82" t="n">
+        <v>11618822</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8738443</v>
+      </c>
+      <c r="O82" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="P82" t="n">
+        <v>167400</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4751657</v>
+      </c>
+      <c r="R82" t="n">
+        <v>28.38504778972521</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1871278</v>
+      </c>
+      <c r="T82" t="n">
+        <v>114410</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.03666004885636037</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.2123286680870057</v>
+      </c>
+      <c r="W82" t="n">
+        <v>5.395978454321511</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.1104810996563574</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.050375269090341</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C83" t="n">
+        <v>31224501</v>
+      </c>
+      <c r="D83" t="n">
+        <v>939874</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1014697</v>
+      </c>
+      <c r="F83" t="n">
+        <v>603661</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-606551</v>
+      </c>
+      <c r="H83" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J83" t="n">
+        <v>10781448</v>
+      </c>
+      <c r="K83" t="n">
+        <v>8568442</v>
+      </c>
+      <c r="L83" t="n">
+        <v>898045</v>
+      </c>
+      <c r="M83" t="n">
+        <v>18890391</v>
+      </c>
+      <c r="N83" t="n">
+        <v>14087682</v>
+      </c>
+      <c r="O83" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="P83" t="n">
+        <v>246285.6796116505</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>8108943</v>
+      </c>
+      <c r="R83" t="n">
+        <v>32.92494721084226</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3306234</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2213006</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.03249682036552001</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.04753977829257213</v>
+      </c>
+      <c r="W83" t="n">
+        <v>11.47116315591239</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.07279151943462897</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.719061222408323</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15846153</v>
+      </c>
+      <c r="D84" t="n">
+        <v>235318</v>
+      </c>
+      <c r="E84" t="n">
+        <v>192094</v>
+      </c>
+      <c r="F84" t="n">
+        <v>536288</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-115732</v>
+      </c>
+      <c r="H84" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="I84" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3824760</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3779176</v>
+      </c>
+      <c r="L84" t="n">
+        <v>192488</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5422612</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5141017</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="P84" t="n">
+        <v>78727.04918032787</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1597852</v>
+      </c>
+      <c r="R84" t="n">
+        <v>20.29609920143263</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1316257</v>
+      </c>
+      <c r="T84" t="n">
+        <v>45584</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.01212243754051851</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.03549728433456054</v>
+      </c>
+      <c r="W84" t="n">
+        <v>16.25358026160345</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.06844319775596074</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.756495159300541</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>47.95</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2832679</v>
+      </c>
+      <c r="D85" t="n">
+        <v>322669</v>
+      </c>
+      <c r="E85" t="n">
+        <v>415667</v>
+      </c>
+      <c r="F85" t="n">
+        <v>693744</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-424774</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3142975</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1214650</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7385131</v>
+      </c>
+      <c r="M85" t="n">
+        <v>11438451</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2644112</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P85" t="n">
+        <v>355270.9401709402</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>8295476</v>
+      </c>
+      <c r="R85" t="n">
+        <v>23.3497172496253</v>
+      </c>
+      <c r="S85" t="n">
+        <v>-498863</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1928325</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.1467398882824351</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.6456408302138112</v>
+      </c>
+      <c r="W85" t="n">
+        <v>9.740554562105439</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.02440041710114703</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.053558057572173</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3390820</v>
+      </c>
+      <c r="D86" t="n">
+        <v>191263</v>
+      </c>
+      <c r="E86" t="n">
+        <v>567208</v>
+      </c>
+      <c r="F86" t="n">
+        <v>349365</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-880325</v>
+      </c>
+      <c r="H86" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5737366</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3005584</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7421626</v>
+      </c>
+      <c r="M86" t="n">
+        <v>10809863</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2823976</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P86" t="n">
+        <v>292375.2577319588</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5072497</v>
+      </c>
+      <c r="R86" t="n">
+        <v>17.34926901595182</v>
+      </c>
+      <c r="S86" t="n">
+        <v>-2913390</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2731782</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.1672775316885001</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.6865605974839829</v>
+      </c>
+      <c r="W86" t="n">
+        <v>29.99726031694578</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.08899082568807339</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.256537089831044</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>578</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5496136</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1068052</v>
+      </c>
+      <c r="E87" t="n">
+        <v>940361</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1238209</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-215485</v>
+      </c>
+      <c r="H87" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="I87" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3049551</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1587118</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2388099</v>
+      </c>
+      <c r="M87" t="n">
+        <v>6284992</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1227593</v>
+      </c>
+      <c r="O87" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="P87" t="n">
+        <v>85409.71843778383</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3235441</v>
+      </c>
+      <c r="R87" t="n">
+        <v>37.88141512674388</v>
+      </c>
+      <c r="S87" t="n">
+        <v>-1821958</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1462433</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.1710949292375589</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.3799685027443154</v>
+      </c>
+      <c r="W87" t="n">
+        <v>2.855245812001663</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.01904844290657439</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>15.25814170526956</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1158500</v>
+      </c>
+      <c r="D88" t="n">
+        <v>57774</v>
+      </c>
+      <c r="E88" t="n">
+        <v>32228</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-205064</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-80163</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1241476</v>
+      </c>
+      <c r="K88" t="n">
+        <v>840809</v>
+      </c>
+      <c r="L88" t="n">
+        <v>708091</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2329080</v>
+      </c>
+      <c r="N88" t="n">
+        <v>964586</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P88" t="n">
+        <v>92080</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1087604</v>
+      </c>
+      <c r="R88" t="n">
+        <v>11.81151172893136</v>
+      </c>
+      <c r="S88" t="n">
+        <v>-276890</v>
+      </c>
+      <c r="T88" t="n">
+        <v>400667</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.02781873111782477</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.3040217596647604</v>
+      </c>
+      <c r="W88" t="n">
+        <v>21.4884896320144</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.02372881355932203</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.248781725701634</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>35457253</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1523554</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1623137</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2667076</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1662318</v>
+      </c>
+      <c r="H89" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10864588</v>
+      </c>
+      <c r="K89" t="n">
+        <v>7025421</v>
+      </c>
+      <c r="L89" t="n">
+        <v>10946977</v>
+      </c>
+      <c r="M89" t="n">
+        <v>21703844</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9226452</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="P89" t="n">
+        <v>588093.115942029</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>10839256</v>
+      </c>
+      <c r="R89" t="n">
+        <v>18.43119007206415</v>
+      </c>
+      <c r="S89" t="n">
+        <v>-1638136</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3839167</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.04577729132034002</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.5043796389247914</v>
+      </c>
+      <c r="W89" t="n">
+        <v>7.131081668257246</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.09078947368421052</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.649378031539958</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>47383597</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3592058</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3035817</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2743846</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-2046847</v>
+      </c>
+      <c r="H90" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="J90" t="n">
+        <v>18830712</v>
+      </c>
+      <c r="K90" t="n">
+        <v>16194376</v>
+      </c>
+      <c r="L90" t="n">
+        <v>6955616</v>
+      </c>
+      <c r="M90" t="n">
+        <v>34126759</v>
+      </c>
+      <c r="N90" t="n">
+        <v>25700636</v>
+      </c>
+      <c r="O90" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="P90" t="n">
+        <v>377589.1791044776</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>15296047</v>
+      </c>
+      <c r="R90" t="n">
+        <v>40.50975993612263</v>
+      </c>
+      <c r="S90" t="n">
+        <v>6869924</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2636336</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.06406894352068712</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.2038170691802289</v>
+      </c>
+      <c r="W90" t="n">
+        <v>5.242318470358775</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.07693779904306219</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.579625259808493</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>46809163</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3301970</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2893659</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3354439</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1537975</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J91" t="n">
+        <v>31591733</v>
+      </c>
+      <c r="K91" t="n">
+        <v>16193039</v>
+      </c>
+      <c r="L91" t="n">
+        <v>15233837</v>
+      </c>
+      <c r="M91" t="n">
+        <v>70332485</v>
+      </c>
+      <c r="N91" t="n">
+        <v>35299190</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1878999.350649351</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>38740752</v>
+      </c>
+      <c r="R91" t="n">
+        <v>20.61775699209893</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3707457</v>
+      </c>
+      <c r="T91" t="n">
+        <v>15398694</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.06181821708711177</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.2165974513768424</v>
+      </c>
+      <c r="W91" t="n">
+        <v>9.567540892255229</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.07298578199052132</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.023389693073105</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3713759</v>
+      </c>
+      <c r="D92" t="n">
+        <v>64048</v>
+      </c>
+      <c r="E92" t="n">
+        <v>78319</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-148494</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-28369</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1967188</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1660401</v>
+      </c>
+      <c r="L92" t="n">
+        <v>995813</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4403055</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2822995</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P92" t="n">
+        <v>191021.9512195122</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2435867</v>
+      </c>
+      <c r="R92" t="n">
+        <v>12.75176483356529</v>
+      </c>
+      <c r="S92" t="n">
+        <v>855807</v>
+      </c>
+      <c r="T92" t="n">
+        <v>306787</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.02108887518010727</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.2261641065124101</v>
+      </c>
+      <c r="W92" t="n">
+        <v>30.71427679240569</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.03360655737704918</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.9567303160960959</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>20397000</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1156856</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1137434</v>
+      </c>
+      <c r="F93" t="n">
+        <v>914567</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-510505</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="J93" t="n">
+        <v>10542977</v>
+      </c>
+      <c r="K93" t="n">
+        <v>7222771</v>
+      </c>
+      <c r="L93" t="n">
+        <v>13964227</v>
+      </c>
+      <c r="M93" t="n">
+        <v>29955546</v>
+      </c>
+      <c r="N93" t="n">
+        <v>10667066</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="P93" t="n">
+        <v>539068.2464454976</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>19412569</v>
+      </c>
+      <c r="R93" t="n">
+        <v>36.01133831941019</v>
+      </c>
+      <c r="S93" t="n">
+        <v>124089</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3320206</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.05576476932882286</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.4661649966253327</v>
+      </c>
+      <c r="W93" t="n">
+        <v>9.113473932797168</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.05780821917808219</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.013569661761957</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="C94" t="n">
+        <v>693126573</v>
+      </c>
+      <c r="D94" t="n">
+        <v>13461681</v>
+      </c>
+      <c r="E94" t="n">
+        <v>11096306</v>
+      </c>
+      <c r="F94" t="n">
+        <v>34444053</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-9457065</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J94" t="n">
+        <v>164748699</v>
+      </c>
+      <c r="K94" t="n">
+        <v>164527553</v>
+      </c>
+      <c r="L94" t="n">
+        <v>16951183</v>
+      </c>
+      <c r="M94" t="n">
+        <v>278846299</v>
+      </c>
+      <c r="N94" t="n">
+        <v>236063264</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4385891.699604743</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>114097600</v>
+      </c>
+      <c r="R94" t="n">
+        <v>26.01468704990652</v>
+      </c>
+      <c r="S94" t="n">
+        <v>71314565</v>
+      </c>
+      <c r="T94" t="n">
+        <v>221146</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.01600906159458411</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.06079041773475358</v>
+      </c>
+      <c r="W94" t="n">
+        <v>12.23834519626486</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.07259684361549497</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.339627877634808</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>384112294</v>
+      </c>
+      <c r="D95" t="n">
+        <v>18220746</v>
+      </c>
+      <c r="E95" t="n">
+        <v>16847398</v>
+      </c>
+      <c r="F95" t="n">
+        <v>18477046</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-6730614</v>
+      </c>
+      <c r="H95" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="I95" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="J95" t="n">
+        <v>101695264</v>
+      </c>
+      <c r="K95" t="n">
+        <v>97808048</v>
+      </c>
+      <c r="L95" t="n">
+        <v>10509523</v>
+      </c>
+      <c r="M95" t="n">
+        <v>217869950</v>
+      </c>
+      <c r="N95" t="n">
+        <v>172131073</v>
+      </c>
+      <c r="O95" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="P95" t="n">
+        <v>766139.0632105503</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>116174686</v>
+      </c>
+      <c r="R95" t="n">
+        <v>151.6365521334511</v>
+      </c>
+      <c r="S95" t="n">
+        <v>70435809</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3887216</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.04386060603413022</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.04823759770450216</v>
+      </c>
+      <c r="W95" t="n">
+        <v>5.581289811075792</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.07342237061769616</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.975117448835281</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C96" t="n">
+        <v>122055577</v>
+      </c>
+      <c r="D96" t="n">
+        <v>315416</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-3971269</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-109645</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-59572</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="J96" t="n">
+        <v>68811114</v>
+      </c>
+      <c r="K96" t="n">
+        <v>43676780</v>
+      </c>
+      <c r="L96" t="n">
+        <v>20727023</v>
+      </c>
+      <c r="M96" t="n">
+        <v>93185772</v>
+      </c>
+      <c r="N96" t="n">
+        <v>48029194</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2282338.505747126</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>24374658</v>
+      </c>
+      <c r="R96" t="n">
+        <v>10.67968574276887</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-20781920</v>
+      </c>
+      <c r="T96" t="n">
+        <v>25134334</v>
+      </c>
+      <c r="U96" t="n">
+        <v>-0.03253656324118643</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.2224269065453469</v>
+      </c>
+      <c r="W96" t="n">
+        <v>218.1598714079184</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.1104761904761905</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.474762495765776</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>26433740</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4026501</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3570827</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3926476</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-3042814</v>
+      </c>
+      <c r="H97" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="I97" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5882031</v>
+      </c>
+      <c r="K97" t="n">
+        <v>4559231</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6139401</v>
+      </c>
+      <c r="M97" t="n">
+        <v>21576394</v>
+      </c>
+      <c r="N97" t="n">
+        <v>11452028</v>
+      </c>
+      <c r="O97" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="P97" t="n">
+        <v>554476.2422360248</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>15694363</v>
+      </c>
+      <c r="R97" t="n">
+        <v>28.30484302935987</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5569997</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1322800</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.1350859545414308</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.2845424958405932</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.46082939008335</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.06829268292682927</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>3.331585336904539</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>45447984</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1035589</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1552060</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4397395</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-719984</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8795613</v>
+      </c>
+      <c r="K98" t="n">
+        <v>8513425</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4609170</v>
+      </c>
+      <c r="M98" t="n">
+        <v>29523910</v>
+      </c>
+      <c r="N98" t="n">
+        <v>22906216</v>
+      </c>
+      <c r="O98" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="P98" t="n">
+        <v>630918.6991869919</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>20728297</v>
+      </c>
+      <c r="R98" t="n">
+        <v>32.85414907928817</v>
+      </c>
+      <c r="S98" t="n">
+        <v>14110603</v>
+      </c>
+      <c r="T98" t="n">
+        <v>282188</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.03415024965683847</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.156116517087337</v>
+      </c>
+      <c r="W98" t="n">
+        <v>8.493343401677693</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.07809523809523809</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.9587830116671063</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>789692</v>
+      </c>
+      <c r="D99" t="n">
+        <v>58634</v>
+      </c>
+      <c r="E99" t="n">
+        <v>74231</v>
+      </c>
+      <c r="F99" t="n">
+        <v>137601</v>
+      </c>
+      <c r="G99" t="n">
+        <v>75660</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J99" t="n">
+        <v>365854</v>
+      </c>
+      <c r="K99" t="n">
+        <v>279760</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8970</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1116997</v>
+      </c>
+      <c r="N99" t="n">
+        <v>999573</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P99" t="n">
+        <v>48836.18421052631</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>751143</v>
+      </c>
+      <c r="R99" t="n">
+        <v>15.38086998693268</v>
+      </c>
+      <c r="S99" t="n">
+        <v>633719</v>
+      </c>
+      <c r="T99" t="n">
+        <v>86094</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.09399993921680858</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.008030460242954994</v>
+      </c>
+      <c r="W99" t="n">
+        <v>6.239622062284681</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.06129032258064516</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.612392538332984</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="C100" t="n">
+        <v>68826626</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8886141</v>
+      </c>
+      <c r="E100" t="n">
+        <v>12248686</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10048525</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-5156681</v>
+      </c>
+      <c r="H100" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="J100" t="n">
+        <v>91042341</v>
+      </c>
+      <c r="K100" t="n">
+        <v>26290828</v>
+      </c>
+      <c r="L100" t="n">
+        <v>73281723</v>
+      </c>
+      <c r="M100" t="n">
+        <v>193398331</v>
+      </c>
+      <c r="N100" t="n">
+        <v>50886125</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3839713.479623824</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>102355990</v>
+      </c>
+      <c r="R100" t="n">
+        <v>26.65719474725697</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-40156216</v>
+      </c>
+      <c r="T100" t="n">
+        <v>64751513</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.1779643535047032</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.3789160052265394</v>
+      </c>
+      <c r="W100" t="n">
+        <v>10.24543060930498</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.07886279357231149</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.517413980860169</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C101" t="n">
+        <v>118496562</v>
+      </c>
+      <c r="D101" t="n">
+        <v>16172691</v>
+      </c>
+      <c r="E101" t="n">
+        <v>13728114</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15866692</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-4291669</v>
+      </c>
+      <c r="H101" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>132574591</v>
+      </c>
+      <c r="K101" t="n">
+        <v>62253658</v>
+      </c>
+      <c r="L101" t="n">
+        <v>146486489</v>
+      </c>
+      <c r="M101" t="n">
+        <v>261894940</v>
+      </c>
+      <c r="N101" t="n">
+        <v>79269224</v>
+      </c>
+      <c r="O101" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5891894.420600859</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>129320349</v>
+      </c>
+      <c r="R101" t="n">
+        <v>21.94885715328413</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-53305367</v>
+      </c>
+      <c r="T101" t="n">
+        <v>70320933</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.1158524244779355</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.5593330249144943</v>
+      </c>
+      <c r="W101" t="n">
+        <v>8.197435479352199</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.05628019323671498</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.886202990473491</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>32048850</v>
+      </c>
+      <c r="D102" t="n">
+        <v>15124013</v>
+      </c>
+      <c r="E102" t="n">
+        <v>13577668</v>
+      </c>
+      <c r="F102" t="n">
+        <v>32303263</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-52843468</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J102" t="n">
+        <v>615986896</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>15821362</v>
+      </c>
+      <c r="M102" t="n">
+        <v>767992148</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P102" t="n">
+        <v>9236508.843537414</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>152005252</v>
+      </c>
+      <c r="R102" t="n">
+        <v>16.45700281079196</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>0.4236553885708847</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.02060094239401</v>
+      </c>
+      <c r="W102" t="n">
+        <v>40.72906417099748</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.07313432835820895</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.221364560187052</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="C103" t="n">
+        <v>242021091</v>
+      </c>
+      <c r="D103" t="n">
+        <v>35808874</v>
+      </c>
+      <c r="E103" t="n">
+        <v>30687086</v>
+      </c>
+      <c r="F103" t="n">
+        <v>183756274</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-110802704</v>
+      </c>
+      <c r="H103" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3384452534</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>32516807</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3618135216</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="P103" t="n">
+        <v>9052237.758112093</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>233682682</v>
+      </c>
+      <c r="R103" t="n">
+        <v>25.81490767745103</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>0.1267950899370171</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.008987172965843077</v>
+      </c>
+      <c r="W103" t="n">
+        <v>94.51435233623934</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.08061831153388824</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.628903753032985</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="C104" t="n">
+        <v>56885686</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6408323</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5833423</v>
+      </c>
+      <c r="F104" t="n">
+        <v>92138342</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-231196196</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J104" t="n">
         <v>2053805782</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="E4" t="n">
-        <v>56885686</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6408323</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5833423</v>
-      </c>
-      <c r="H4" t="n">
-        <v>92138342</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-231196196</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
         <v>22440427</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M104" t="n">
         <v>2136220013</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
         <v>0.65</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P104" t="n">
         <v>8974496.923076922</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q104" t="n">
         <v>82414231</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R104" t="n">
         <v>9.183158867443696</v>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U104" t="n">
         <v>0.1025464121149915</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V104" t="n">
         <v>0.01050473587151063</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W104" t="n">
         <v>320.4903657321892</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X104" t="n">
         <v>0.05138339920948617</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y104" t="n">
         <v>1.377521633089352</v>
       </c>
     </row>
